--- a/public/assets/uploads/Uploads/target/target.xlsx
+++ b/public/assets/uploads/Uploads/target/target.xlsx
@@ -78,11 +78,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,17 +381,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -403,93 +405,93 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>42560</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>58515696</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>42558</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>58515696</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>42574</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>58515696</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>42576</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>58515696</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>14</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/target/target.xlsx
+++ b/public/assets/uploads/Uploads/target/target.xlsx
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -78,12 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -416,10 +420,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>42560</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -436,10 +440,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>42558</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -456,10 +460,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>42574</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -476,10 +480,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>42576</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -494,6 +498,42 @@
       <c r="F5" s="2">
         <v>14</v>
       </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
